--- a/biology/Zoologie/Flamant_de_James/Flamant_de_James.xlsx
+++ b/biology/Zoologie/Flamant_de_James/Flamant_de_James.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenicoparrus jamesi
 Le Flamant de James (Phoenicoparrus jamesi) est une espèce d'oiseaux qui vit en Amérique du Sud, et qui est apparentée au Flamant du Chili et au Flamant des Andes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flamant de James est de petite taille, à l’allure délicate. Son plumage est rose pâle, avec des stries carmin vif autour du cou et sur le dos. L’œil est entouré d’une zone de peau nue rouge vif. Ses pattes sont rouge brique et le bec est jaune vif à pointe noire. Les immatures sont grisâtres.
 Le flamant de James ressemble aux autres flamants sud-américains, mais le flamant du Chili est plus rose, avec un bec plus clair et plus long, et le flamant des Andes est plus grand avec davantage de noir dans les ailes et au bec, et des pattes jaunes.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Altiplano.
 </t>
@@ -575,7 +591,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est dédiée à Henry Berkeley James (1846-1892), homme d'affaires britannique qui découvre l'espèce au Chili.
 </t>
